--- a/Cross-Entropy Loss, Accuracy and F1.xlsx
+++ b/Cross-Entropy Loss, Accuracy and F1.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="c4aPiqRjF3b8lByNrONt3AULbC8Nu1OZ+vQHFXwMzgc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="4teRTzYhPHvCOK3Fj/W7OwH3+yOxCyqrJpal2V8wE/Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Category Classifier (4 classes)</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>could be a result of training on ambiguous, noisy, or weakly correlated priority labels.</t>
+  </si>
+  <si>
+    <t>Note: As this is a weakly supervised setup, final evaluation metrics may reflect some noise in the labels. Manual labeling or active learning could improve this in future iterations.</t>
   </si>
   <si>
     <t>[179/463 02:01 &lt; 03:13, 1.47 it/s]</t>
@@ -530,8 +533,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
-    <col customWidth="1" min="12" max="12" width="37.13"/>
+    <col customWidth="1" min="1" max="5" width="12.63"/>
+    <col customWidth="1" min="10" max="10" width="37.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -563,7 +566,7 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -583,7 +586,7 @@
       <c r="E5" s="5">
         <v>0.164412</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5">
@@ -601,7 +604,7 @@
       <c r="E6" s="5">
         <v>0.187482</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -621,7 +624,7 @@
       <c r="E7" s="5">
         <v>0.20397</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5">
@@ -639,16 +642,16 @@
       <c r="E8" s="5">
         <v>0.239736</v>
       </c>
+      <c r="G8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="I8" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -668,16 +671,16 @@
       <c r="E9" s="5">
         <v>0.265216</v>
       </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -697,16 +700,16 @@
       <c r="E10" s="5">
         <v>0.220472</v>
       </c>
+      <c r="G10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -726,16 +729,16 @@
       <c r="E11" s="5">
         <v>0.220472</v>
       </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I11" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -755,16 +758,16 @@
       <c r="E12" s="5">
         <v>0.220472</v>
       </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I12" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -784,16 +787,16 @@
       <c r="E13" s="5">
         <v>0.220472</v>
       </c>
+      <c r="G13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="I13" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -813,7 +816,7 @@
       <c r="E14" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5">
@@ -831,7 +834,7 @@
       <c r="E15" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5">
@@ -849,7 +852,7 @@
       <c r="E16" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -869,7 +872,7 @@
       <c r="E17" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -889,7 +892,7 @@
       <c r="E18" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -909,7 +912,7 @@
       <c r="E19" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5">
@@ -927,7 +930,7 @@
       <c r="E20" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -947,7 +950,7 @@
       <c r="E21" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -967,7 +970,7 @@
       <c r="E22" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -987,7 +990,7 @@
       <c r="E23" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1007,7 +1010,7 @@
       <c r="E24" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1027,7 +1030,7 @@
       <c r="E25" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5">
@@ -1045,7 +1048,7 @@
       <c r="E26" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5">
@@ -1063,7 +1066,7 @@
       <c r="E27" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1083,7 +1086,7 @@
       <c r="E28" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1103,7 +1106,7 @@
       <c r="E29" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1123,7 +1126,7 @@
       <c r="E30" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="5">
@@ -1141,7 +1144,7 @@
       <c r="E31" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1161,7 +1164,7 @@
       <c r="E32" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="5">
@@ -1179,7 +1182,7 @@
       <c r="E33" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1199,7 +1202,7 @@
       <c r="E34" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5">
@@ -1217,16 +1220,16 @@
       <c r="E35" s="5">
         <v>0.220472</v>
       </c>
+      <c r="G35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="I35" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1246,16 +1249,16 @@
       <c r="E36" s="5">
         <v>0.220472</v>
       </c>
+      <c r="G36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="I36" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1275,16 +1278,16 @@
       <c r="E37" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="9">
+      <c r="H37" s="9">
         <v>0.42</v>
       </c>
-      <c r="K37" s="9">
+      <c r="I37" s="9">
         <v>0.25</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1304,16 +1307,16 @@
       <c r="E38" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="9">
+      <c r="H38" s="9">
         <v>0.42</v>
       </c>
-      <c r="K38" s="9">
+      <c r="I38" s="9">
         <v>0.25</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1350,7 +1353,7 @@
       <c r="E40" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1370,7 +1373,7 @@
       <c r="E41" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1390,7 +1393,7 @@
       <c r="E42" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1410,7 +1413,7 @@
       <c r="E43" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1430,7 +1433,7 @@
       <c r="E44" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1450,7 +1453,7 @@
       <c r="E45" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="5">
@@ -1468,7 +1471,7 @@
       <c r="E46" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1488,7 +1491,7 @@
       <c r="E47" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1508,7 +1511,7 @@
       <c r="E48" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="5">
@@ -1526,7 +1529,7 @@
       <c r="E49" s="5">
         <v>0.220472</v>
       </c>
-      <c r="I49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="5">
@@ -1544,7 +1547,9 @@
       <c r="E50" s="5">
         <v>0.221636</v>
       </c>
-      <c r="I50" s="6"/>
+      <c r="G50" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5">
@@ -1562,10 +1567,10 @@
       <c r="E51" s="5">
         <v>0.276125</v>
       </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="5">
@@ -1583,10 +1588,10 @@
       <c r="E52" s="5">
         <v>0.267454</v>
       </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="5">
@@ -1604,10 +1609,10 @@
       <c r="E53" s="5">
         <v>0.25394</v>
       </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="5">
@@ -1625,7 +1630,7 @@
       <c r="E54" s="5">
         <v>0.263679</v>
       </c>
-      <c r="I54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="5">
@@ -1643,7 +1648,7 @@
       <c r="E55" s="5">
         <v>0.297999</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="5">
@@ -1661,7 +1666,7 @@
       <c r="E56" s="5">
         <v>0.303571</v>
       </c>
-      <c r="I56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="5">
@@ -1679,7 +1684,7 @@
       <c r="E57" s="5">
         <v>0.299111</v>
       </c>
-      <c r="I57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="5">
@@ -1697,7 +1702,7 @@
       <c r="E58" s="5">
         <v>0.288315</v>
       </c>
-      <c r="I58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="5">
@@ -1715,7 +1720,7 @@
       <c r="E59" s="5">
         <v>0.278075</v>
       </c>
-      <c r="I59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="5">
@@ -1733,7 +1738,7 @@
       <c r="E60" s="5">
         <v>0.281526</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="5">
@@ -1751,7 +1756,7 @@
       <c r="E61" s="5">
         <v>0.310732</v>
       </c>
-      <c r="I61" s="10"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="5">
@@ -1769,7 +1774,7 @@
       <c r="E62" s="5">
         <v>0.37924</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="5">
@@ -1787,7 +1792,7 @@
       <c r="E63" s="5">
         <v>0.485019</v>
       </c>
-      <c r="I63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5">
@@ -1805,7 +1810,7 @@
       <c r="E64" s="5">
         <v>0.496437</v>
       </c>
-      <c r="I64" s="10"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="5">
@@ -2506,7 +2511,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1"/>
@@ -2519,7 +2524,7 @@
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -3901,7 +3906,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1"/>
